--- a/excel/rfdocs.xlsx
+++ b/excel/rfdocs.xlsx
@@ -1,19 +1,169 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sokrog\Desktop\alli-project\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+  </bookViews>
   <sheets>
     <sheet name="docs" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="46">
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Returns</t>
+  </si>
+  <si>
+    <t>Transffered</t>
+  </si>
+  <si>
+    <t>Scan</t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>12/04/1994</t>
+  </si>
+  <si>
+    <t>AUTOKADA</t>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>scan</t>
+  </si>
+  <si>
+    <t>002</t>
+  </si>
+  <si>
+    <t>13/04/1994</t>
+  </si>
+  <si>
+    <t>003</t>
+  </si>
+  <si>
+    <t>14/04/1994</t>
+  </si>
+  <si>
+    <t>500.25</t>
+  </si>
+  <si>
+    <t>004</t>
+  </si>
+  <si>
+    <t>15/04/1994</t>
+  </si>
+  <si>
+    <t>005</t>
+  </si>
+  <si>
+    <t>16/04/1994</t>
+  </si>
+  <si>
+    <t>006</t>
+  </si>
+  <si>
+    <t>17/04/1994</t>
+  </si>
+  <si>
+    <t>007</t>
+  </si>
+  <si>
+    <t>18/04/1994</t>
+  </si>
+  <si>
+    <t>008</t>
+  </si>
+  <si>
+    <t>19/04/1994</t>
+  </si>
+  <si>
+    <t>009</t>
+  </si>
+  <si>
+    <t>010</t>
+  </si>
+  <si>
+    <t>011</t>
+  </si>
+  <si>
+    <t>012</t>
+  </si>
+  <si>
+    <t>013</t>
+  </si>
+  <si>
+    <t>014</t>
+  </si>
+  <si>
+    <t>015</t>
+  </si>
+  <si>
+    <t>016</t>
+  </si>
+  <si>
+    <t>017</t>
+  </si>
+  <si>
+    <t>018</t>
+  </si>
+  <si>
+    <t>019</t>
+  </si>
+  <si>
+    <t>020</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t>022</t>
+  </si>
+  <si>
+    <t>023</t>
+  </si>
+  <si>
+    <t>024</t>
+  </si>
+  <si>
+    <t>025</t>
+  </si>
+  <si>
+    <t>026</t>
+  </si>
+  <si>
+    <t>20/04/1994</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -46,10 +196,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -374,47 +532,59 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>Number</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Date</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Buyer</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Amount</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Returns</v>
-      </c>
-      <c r="F1" t="str">
-        <v>Transffered</v>
-      </c>
-      <c r="G1" t="str">
-        <v>Scan</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>001</v>
-      </c>
-      <c r="B2" t="str">
-        <v>12/04/1994</v>
-      </c>
-      <c r="C2" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D2" t="str">
-        <v>10000</v>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -422,22 +592,22 @@
       <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="str">
-        <v>002</v>
-      </c>
-      <c r="B3" t="str">
-        <v>13/04/1994</v>
-      </c>
-      <c r="C3" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D3" t="str">
-        <v>10000</v>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
       <c r="E3" t="b">
         <v>0</v>
@@ -445,22 +615,22 @@
       <c r="F3" t="b">
         <v>1</v>
       </c>
-      <c r="G3" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="str">
-        <v>003</v>
-      </c>
-      <c r="B4" t="str">
-        <v>14/04/1994</v>
-      </c>
-      <c r="C4" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D4" t="str">
-        <v>500.25</v>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -468,22 +638,22 @@
       <c r="F4" t="b">
         <v>1</v>
       </c>
-      <c r="G4" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>004</v>
-      </c>
-      <c r="B5" t="str">
-        <v>15/04/1994</v>
-      </c>
-      <c r="C5" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D5" t="str">
-        <v>10000</v>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -491,22 +661,22 @@
       <c r="F5" t="b">
         <v>1</v>
       </c>
-      <c r="G5" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>005</v>
-      </c>
-      <c r="B6" t="str">
-        <v>16/04/1994</v>
-      </c>
-      <c r="C6" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D6" t="str">
-        <v>10000</v>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -514,22 +684,22 @@
       <c r="F6" t="b">
         <v>1</v>
       </c>
-      <c r="G6" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>006</v>
-      </c>
-      <c r="B7" t="str">
-        <v>17/04/1994</v>
-      </c>
-      <c r="C7" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D7" t="str">
-        <v>10000</v>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -537,22 +707,22 @@
       <c r="F7" t="b">
         <v>1</v>
       </c>
-      <c r="G7" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>007</v>
-      </c>
-      <c r="B8" t="str">
-        <v>18/04/1994</v>
-      </c>
-      <c r="C8" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D8" t="str">
-        <v>500.25</v>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -560,22 +730,22 @@
       <c r="F8" t="b">
         <v>1</v>
       </c>
-      <c r="G8" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>008</v>
-      </c>
-      <c r="B9" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C9" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D9" t="str">
-        <v>10000</v>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -583,22 +753,22 @@
       <c r="F9" t="b">
         <v>1</v>
       </c>
-      <c r="G9" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>009</v>
-      </c>
-      <c r="B10" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C10" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D10" t="str">
-        <v>10000</v>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -606,22 +776,22 @@
       <c r="F10" t="b">
         <v>1</v>
       </c>
-      <c r="G10" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>010</v>
-      </c>
-      <c r="B11" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C11" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D11" t="str">
-        <v>10000</v>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -629,22 +799,22 @@
       <c r="F11" t="b">
         <v>1</v>
       </c>
-      <c r="G11" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="str">
-        <v>011</v>
-      </c>
-      <c r="B12" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C12" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D12" t="str">
-        <v>10000</v>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -652,22 +822,22 @@
       <c r="F12" t="b">
         <v>1</v>
       </c>
-      <c r="G12" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>012</v>
-      </c>
-      <c r="B13" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C13" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D13" t="str">
-        <v>10000</v>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
       </c>
       <c r="E13" t="b">
         <v>0</v>
@@ -675,22 +845,22 @@
       <c r="F13" t="b">
         <v>1</v>
       </c>
-      <c r="G13" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>013</v>
-      </c>
-      <c r="B14" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C14" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D14" t="str">
-        <v>10000</v>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
       </c>
       <c r="E14" t="b">
         <v>0</v>
@@ -698,22 +868,22 @@
       <c r="F14" t="b">
         <v>1</v>
       </c>
-      <c r="G14" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>014</v>
-      </c>
-      <c r="B15" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C15" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D15" t="str">
-        <v>10000</v>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
       </c>
       <c r="E15" t="b">
         <v>0</v>
@@ -721,22 +891,22 @@
       <c r="F15" t="b">
         <v>1</v>
       </c>
-      <c r="G15" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>015</v>
-      </c>
-      <c r="B16" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C16" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D16" t="str">
-        <v>10000</v>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
       </c>
       <c r="E16" t="b">
         <v>0</v>
@@ -744,22 +914,22 @@
       <c r="F16" t="b">
         <v>1</v>
       </c>
-      <c r="G16" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="str">
-        <v>016</v>
-      </c>
-      <c r="B17" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C17" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D17" t="str">
-        <v>10000</v>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -767,22 +937,22 @@
       <c r="F17" t="b">
         <v>1</v>
       </c>
-      <c r="G17" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="str">
-        <v>017</v>
-      </c>
-      <c r="B18" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C18" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D18" t="str">
-        <v>10000</v>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -790,22 +960,22 @@
       <c r="F18" t="b">
         <v>1</v>
       </c>
-      <c r="G18" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="str">
-        <v>018</v>
-      </c>
-      <c r="B19" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C19" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D19" t="str">
-        <v>10000</v>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -813,22 +983,22 @@
       <c r="F19" t="b">
         <v>1</v>
       </c>
-      <c r="G19" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="str">
-        <v>019</v>
-      </c>
-      <c r="B20" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C20" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D20" t="str">
-        <v>10000</v>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -836,22 +1006,22 @@
       <c r="F20" t="b">
         <v>1</v>
       </c>
-      <c r="G20" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="str">
-        <v>020</v>
-      </c>
-      <c r="B21" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C21" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D21" t="str">
-        <v>10000</v>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -859,22 +1029,22 @@
       <c r="F21" t="b">
         <v>1</v>
       </c>
-      <c r="G21" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="str">
-        <v>021</v>
-      </c>
-      <c r="B22" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C22" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D22" t="str">
-        <v>10000</v>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -882,22 +1052,22 @@
       <c r="F22" t="b">
         <v>1</v>
       </c>
-      <c r="G22" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="str">
-        <v>022</v>
-      </c>
-      <c r="B23" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C23" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D23" t="str">
-        <v>10000</v>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
@@ -905,22 +1075,22 @@
       <c r="F23" t="b">
         <v>1</v>
       </c>
-      <c r="G23" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>023</v>
-      </c>
-      <c r="B24" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C24" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D24" t="str">
-        <v>10000</v>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -928,22 +1098,22 @@
       <c r="F24" t="b">
         <v>1</v>
       </c>
-      <c r="G24" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>024</v>
-      </c>
-      <c r="B25" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C25" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D25" t="str">
-        <v>10000</v>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -951,22 +1121,22 @@
       <c r="F25" t="b">
         <v>1</v>
       </c>
-      <c r="G25" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>025</v>
-      </c>
-      <c r="B26" t="str">
-        <v>19/04/1994</v>
-      </c>
-      <c r="C26" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D26" t="str">
-        <v>10000</v>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>10</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -974,22 +1144,22 @@
       <c r="F26" t="b">
         <v>1</v>
       </c>
-      <c r="G26" t="str">
-        <v>scan</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>026</v>
-      </c>
-      <c r="B27" t="str">
-        <v>20/04/1994</v>
-      </c>
-      <c r="C27" t="str">
-        <v>AUTOKADA</v>
-      </c>
-      <c r="D27" t="str">
-        <v>10000</v>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" t="s">
+        <v>10</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -997,13 +1167,14 @@
       <c r="F27" t="b">
         <v>1</v>
       </c>
-      <c r="G27" t="str">
-        <v>scan</v>
+      <c r="G27" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G27"/>
+    <ignoredError sqref="A1:G27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>